--- a/ids591_specific/class_schedule_591_xlsx.xlsx
+++ b/ids591_specific/class_schedule_591_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids591_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA74D2A-D12F-3141-BDC7-FA8BBF5BFC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205AB3B9-6C9A-584E-9D50-0D487D73AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="37120" windowHeight="20560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Topic</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>LAST CLASS</t>
-  </si>
-  <si>
-    <t>**Final Project Report Due**</t>
   </si>
   <si>
     <t>- `What is Big Data? &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
@@ -65,9 +62,6 @@
     <t>- `Link &lt;exercises/Exercise_bigdata.html&gt;`_</t>
   </si>
   <si>
-    <t>- ROUGH DRAFT OF OPIOID PROJECT DUE, extendable to Morning of Mon Nov 26 but feedback may be later</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
@@ -175,18 +169,6 @@
     <t>Tu Apr 8</t>
   </si>
   <si>
-    <t>Th Apr 9</t>
-  </si>
-  <si>
-    <t>Tu Apr 15</t>
-  </si>
-  <si>
-    <t>Wed, April 23</t>
-  </si>
-  <si>
-    <t>Wed, Apr 30</t>
-  </si>
-  <si>
     <t>- `Understanding Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
 - `Solving Performance Problems &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_</t>
   </si>
@@ -258,25 +240,34 @@
     <t>- Advanced Modelling</t>
   </si>
   <si>
-    <t>- pyGAM</t>
-  </si>
-  <si>
-    <t>- Matching</t>
-  </si>
-  <si>
-    <t>- Project</t>
-  </si>
-  <si>
-    <t>- Stemming, stop words, etc.</t>
-  </si>
-  <si>
-    <t>- Topic models, bag of words</t>
-  </si>
-  <si>
     <t>- Embeddings</t>
   </si>
   <si>
-    <t>- LLMs</t>
+    <t>- Larger Programs</t>
+  </si>
+  <si>
+    <t>Top Down Design</t>
+  </si>
+  <si>
+    <t>Monte Carlo and Poker Project</t>
+  </si>
+  <si>
+    <t>Poker Test Cases</t>
+  </si>
+  <si>
+    <t>- SciKit-Learn</t>
+  </si>
+  <si>
+    <t>- pyGam</t>
+  </si>
+  <si>
+    <t>- Stemming, stop words, etc., and Tokenization</t>
+  </si>
+  <si>
+    <t>- Bag of Words, Topic Classification</t>
+  </si>
+  <si>
+    <t>- Token prediction</t>
   </si>
 </sst>
 </file>
@@ -672,9 +663,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -687,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -701,325 +692,313 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
+      <c r="C27" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
+      <c r="A30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ids591_specific/class_schedule_591_xlsx.xlsx
+++ b/ids591_specific/class_schedule_591_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids591_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205AB3B9-6C9A-584E-9D50-0D487D73AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017033EF-FA0E-F244-8A77-2367F25F88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="37120" windowHeight="20560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37120" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Topic</t>
   </si>
@@ -240,9 +240,6 @@
     <t>- Advanced Modelling</t>
   </si>
   <si>
-    <t>- Embeddings</t>
-  </si>
-  <si>
     <t>- Larger Programs</t>
   </si>
   <si>
@@ -261,13 +258,13 @@
     <t>- pyGam</t>
   </si>
   <si>
-    <t>- Stemming, stop words, etc., and Tokenization</t>
-  </si>
-  <si>
-    <t>- Bag of Words, Topic Classification</t>
-  </si>
-  <si>
-    <t>- Token prediction</t>
+    <t>- Overview of LLMs</t>
+  </si>
+  <si>
+    <t>- LLM fine tuning with Hugging Face</t>
+  </si>
+  <si>
+    <t>- Embeddings Overview</t>
   </si>
 </sst>
 </file>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,7 +868,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -882,7 +879,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -890,10 +887,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,10 +918,10 @@
         <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -933,10 +930,10 @@
         <v>35</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -948,7 +945,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -960,7 +957,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -972,7 +969,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -984,7 +981,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="10"/>
     </row>
